--- a/SaleData.xlsx
+++ b/SaleData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="219">
   <si>
     <t>title</t>
   </si>
@@ -226,6 +226,21 @@
     <t>https://cdn.cloudflare.steamstatic.com/steam/apps/233450/header.jpg?t=1700131126</t>
   </si>
   <si>
+    <t>Tiny Tina's Wonderlands</t>
+  </si>
+  <si>
+    <t>£54.99</t>
+  </si>
+  <si>
+    <t>£13.74</t>
+  </si>
+  <si>
+    <t>https://store.steampowered.com/app/1286680/Tiny_Tinas_Wonderlands?snr=1_2300_4__salebrowseall</t>
+  </si>
+  <si>
+    <t>https://cdn.cloudflare.steamstatic.com/steam/apps/1286680/header.jpg?t=1682006912</t>
+  </si>
+  <si>
     <t>Borderlands 3</t>
   </si>
   <si>
@@ -235,6 +250,21 @@
     <t>https://cdn.cloudflare.steamstatic.com/steam/apps/397540/header.jpg?t=1693524259</t>
   </si>
   <si>
+    <t>Tropico 6</t>
+  </si>
+  <si>
+    <t>£48.97</t>
+  </si>
+  <si>
+    <t>£13.63</t>
+  </si>
+  <si>
+    <t>https://store.steampowered.com/app/492720/Tropico_6?snr=1_2300_4__salebrowseall</t>
+  </si>
+  <si>
+    <t>https://cdn.cloudflare.steamstatic.com/steam/apps/492720/header.jpg?t=1704790343</t>
+  </si>
+  <si>
     <t>Travellers Rest</t>
   </si>
   <si>
@@ -250,36 +280,6 @@
     <t>https://cdn.cloudflare.steamstatic.com/steam/apps/1139980/header.jpg?t=1703180616</t>
   </si>
   <si>
-    <t>Tiny Tina's Wonderlands</t>
-  </si>
-  <si>
-    <t>£54.99</t>
-  </si>
-  <si>
-    <t>£13.74</t>
-  </si>
-  <si>
-    <t>https://store.steampowered.com/app/1286680/Tiny_Tinas_Wonderlands?snr=1_2300_4__salebrowseall</t>
-  </si>
-  <si>
-    <t>https://cdn.cloudflare.steamstatic.com/steam/apps/1286680/header.jpg?t=1682006912</t>
-  </si>
-  <si>
-    <t>Tropico 6</t>
-  </si>
-  <si>
-    <t>£48.97</t>
-  </si>
-  <si>
-    <t>£13.63</t>
-  </si>
-  <si>
-    <t>https://store.steampowered.com/app/492720/Tropico_6?snr=1_2300_4__salebrowseall</t>
-  </si>
-  <si>
-    <t>https://cdn.cloudflare.steamstatic.com/steam/apps/492720/header.jpg?t=1704790343</t>
-  </si>
-  <si>
     <t>War Hospital</t>
   </si>
   <si>
@@ -319,6 +319,18 @@
     <t>https://cdn.cloudflare.steamstatic.com/steam/apps/1497440/header.jpg?t=1704925638</t>
   </si>
   <si>
+    <t>Transport Fever 2</t>
+  </si>
+  <si>
+    <t>£33.50</t>
+  </si>
+  <si>
+    <t>https://store.steampowered.com/app/1066780/Transport_Fever_2?snr=1_2300_4__salebrowseall</t>
+  </si>
+  <si>
+    <t>https://cdn.cloudflare.steamstatic.com/steam/apps/1066780/header.jpg?t=1679083602</t>
+  </si>
+  <si>
     <t>Planet Coaster</t>
   </si>
   <si>
@@ -331,18 +343,6 @@
     <t>https://cdn.cloudflare.steamstatic.com/steam/apps/493340/header.jpg?t=1668529576</t>
   </si>
   <si>
-    <t>Transport Fever 2</t>
-  </si>
-  <si>
-    <t>£33.50</t>
-  </si>
-  <si>
-    <t>https://store.steampowered.com/app/1066780/Transport_Fever_2?snr=1_2300_4__salebrowseall</t>
-  </si>
-  <si>
-    <t>https://cdn.cloudflare.steamstatic.com/steam/apps/1066780/header.jpg?t=1679083602</t>
-  </si>
-  <si>
     <t>Big Ambitions</t>
   </si>
   <si>
@@ -403,30 +403,30 @@
     <t>https://cdn.cloudflare.steamstatic.com/steam/apps/1342330/header.jpg?t=1687598154</t>
   </si>
   <si>
+    <t>Chillquarium</t>
+  </si>
+  <si>
+    <t>£4.99</t>
+  </si>
+  <si>
+    <t>£3.99</t>
+  </si>
+  <si>
+    <t>https://store.steampowered.com/app/2276930/Chillquarium?snr=1_2300_4__salebrowseall</t>
+  </si>
+  <si>
+    <t>https://cdn.cloudflare.steamstatic.com/steam/apps/2276930/header.jpg?t=1705022033</t>
+  </si>
+  <si>
     <t>Frostpunk</t>
   </si>
   <si>
-    <t>£4.99</t>
-  </si>
-  <si>
     <t>https://store.steampowered.com/app/323190/Frostpunk?snr=1_2300_4__salebrowseall</t>
   </si>
   <si>
     <t>https://cdn.cloudflare.steamstatic.com/steam/apps/323190/header.jpg?t=1701879213</t>
   </si>
   <si>
-    <t>Chillquarium</t>
-  </si>
-  <si>
-    <t>£3.99</t>
-  </si>
-  <si>
-    <t>https://store.steampowered.com/app/2276930/Chillquarium?snr=1_2300_4__salebrowseall</t>
-  </si>
-  <si>
-    <t>https://cdn.cloudflare.steamstatic.com/steam/apps/2276930/header.jpg?t=1705022033</t>
-  </si>
-  <si>
     <t>Workers &amp; Resources: Soviet Republic</t>
   </si>
   <si>
@@ -439,6 +439,30 @@
     <t>https://cdn.cloudflare.steamstatic.com/steam/apps/784150/header.jpg?t=1705119853</t>
   </si>
   <si>
+    <t>Momodora: Moonlit Farewell</t>
+  </si>
+  <si>
+    <t>£14.29</t>
+  </si>
+  <si>
+    <t>£12.86</t>
+  </si>
+  <si>
+    <t>https://store.steampowered.com/app/1747760/Momodora_Moonlit_Farewell?snr=1_2300_4__salebrowseall</t>
+  </si>
+  <si>
+    <t>https://cdn.cloudflare.steamstatic.com/steam/apps/1747760/header.jpg?t=1705076973</t>
+  </si>
+  <si>
+    <t>Potionomics</t>
+  </si>
+  <si>
+    <t>https://store.steampowered.com/app/1874490/Potionomics?snr=1_2300_4__salebrowseall</t>
+  </si>
+  <si>
+    <t>https://cdn.cloudflare.steamstatic.com/steam/apps/1874490/header.jpg?t=1705017425</t>
+  </si>
+  <si>
     <t>Quasimorph</t>
   </si>
   <si>
@@ -451,28 +475,19 @@
     <t>https://cdn.cloudflare.steamstatic.com/steam/apps/2059170/header.jpg?t=1704996145</t>
   </si>
   <si>
-    <t>Potionomics</t>
-  </si>
-  <si>
-    <t>https://store.steampowered.com/app/1874490/Potionomics?snr=1_2300_4__salebrowseall</t>
-  </si>
-  <si>
-    <t>https://cdn.cloudflare.steamstatic.com/steam/apps/1874490/header.jpg?t=1705017425</t>
-  </si>
-  <si>
-    <t>Momodora: Moonlit Farewell</t>
-  </si>
-  <si>
-    <t>£14.29</t>
-  </si>
-  <si>
-    <t>£12.86</t>
-  </si>
-  <si>
-    <t>https://store.steampowered.com/app/1747760/Momodora_Moonlit_Farewell?snr=1_2300_4__salebrowseall</t>
-  </si>
-  <si>
-    <t>https://cdn.cloudflare.steamstatic.com/steam/apps/1747760/header.jpg?t=1705076973</t>
+    <t>Warhammer 40,000: Boltgun</t>
+  </si>
+  <si>
+    <t>£18.99</t>
+  </si>
+  <si>
+    <t>£12.91</t>
+  </si>
+  <si>
+    <t>https://store.steampowered.com/app/2005010/Warhammer_40000_Boltgun?snr=1_2300_4__salebrowseall</t>
+  </si>
+  <si>
+    <t>https://cdn.cloudflare.steamstatic.com/steam/apps/2005010/header.jpg?t=1695829282</t>
   </si>
   <si>
     <t>F1® Manager 2023</t>
@@ -490,19 +505,58 @@
     <t>https://cdn.cloudflare.steamstatic.com/steam/apps/2287220/header.jpg?t=1700229797</t>
   </si>
   <si>
-    <t>Warhammer 40,000: Boltgun</t>
-  </si>
-  <si>
-    <t>£18.99</t>
-  </si>
-  <si>
-    <t>£12.91</t>
-  </si>
-  <si>
-    <t>https://store.steampowered.com/app/2005010/Warhammer_40000_Boltgun?snr=1_2300_4__salebrowseall</t>
-  </si>
-  <si>
-    <t>https://cdn.cloudflare.steamstatic.com/steam/apps/2005010/header.jpg?t=1695829282</t>
+    <t>Drug Dealer Simulator</t>
+  </si>
+  <si>
+    <t>£15.49</t>
+  </si>
+  <si>
+    <t>£2.78</t>
+  </si>
+  <si>
+    <t>https://store.steampowered.com/app/682990/Drug_Dealer_Simulator?snr=1_2300_4__salebrowseall</t>
+  </si>
+  <si>
+    <t>https://cdn.cloudflare.steamstatic.com/steam/apps/682990/header.jpg?t=1704402824</t>
+  </si>
+  <si>
+    <t>WWE 2K23</t>
+  </si>
+  <si>
+    <t>https://store.steampowered.com/app/1942660/WWE_2K23?snr=1_2300_4__salebrowseall</t>
+  </si>
+  <si>
+    <t>https://cdn.cloudflare.steamstatic.com/steam/apps/1942660/header.jpg?t=1702580766</t>
+  </si>
+  <si>
+    <t>Beer Factory</t>
+  </si>
+  <si>
+    <t>£15.89</t>
+  </si>
+  <si>
+    <t>£14.30</t>
+  </si>
+  <si>
+    <t>https://store.steampowered.com/app/1782570/Beer_Factory?snr=1_2300_4__salebrowseall</t>
+  </si>
+  <si>
+    <t>https://cdn.cloudflare.steamstatic.com/steam/apps/1782570/header.jpg?t=1704974108</t>
+  </si>
+  <si>
+    <t>Turmoil</t>
+  </si>
+  <si>
+    <t>£10.99</t>
+  </si>
+  <si>
+    <t>£5.49</t>
+  </si>
+  <si>
+    <t>https://store.steampowered.com/app/361280/Turmoil?snr=1_2300_4__salebrowseall</t>
+  </si>
+  <si>
+    <t>https://cdn.cloudflare.steamstatic.com/steam/apps/361280/header.jpg?t=1676993558</t>
   </si>
   <si>
     <t>Software Inc.</t>
@@ -517,45 +571,6 @@
     <t>https://cdn.cloudflare.steamstatic.com/steam/apps/362620/header.jpg?t=1699869658</t>
   </si>
   <si>
-    <t>Drug Dealer Simulator</t>
-  </si>
-  <si>
-    <t>£15.49</t>
-  </si>
-  <si>
-    <t>£2.78</t>
-  </si>
-  <si>
-    <t>https://store.steampowered.com/app/682990/Drug_Dealer_Simulator?snr=1_2300_4__salebrowseall</t>
-  </si>
-  <si>
-    <t>https://cdn.cloudflare.steamstatic.com/steam/apps/682990/header.jpg?t=1704402824</t>
-  </si>
-  <si>
-    <t>WWE 2K23</t>
-  </si>
-  <si>
-    <t>https://store.steampowered.com/app/1942660/WWE_2K23?snr=1_2300_4__salebrowseall</t>
-  </si>
-  <si>
-    <t>https://cdn.cloudflare.steamstatic.com/steam/apps/1942660/header.jpg?t=1702580766</t>
-  </si>
-  <si>
-    <t>Beer Factory</t>
-  </si>
-  <si>
-    <t>£15.89</t>
-  </si>
-  <si>
-    <t>£14.30</t>
-  </si>
-  <si>
-    <t>https://store.steampowered.com/app/1782570/Beer_Factory?snr=1_2300_4__salebrowseall</t>
-  </si>
-  <si>
-    <t>https://cdn.cloudflare.steamstatic.com/steam/apps/1782570/header.jpg?t=1704974108</t>
-  </si>
-  <si>
     <t>Rising Front</t>
   </si>
   <si>
@@ -568,21 +583,6 @@
     <t>https://cdn.cloudflare.steamstatic.com/steam/apps/1560250/header.jpg?t=1695056016</t>
   </si>
   <si>
-    <t>Turmoil</t>
-  </si>
-  <si>
-    <t>£10.99</t>
-  </si>
-  <si>
-    <t>£5.49</t>
-  </si>
-  <si>
-    <t>https://store.steampowered.com/app/361280/Turmoil?snr=1_2300_4__salebrowseall</t>
-  </si>
-  <si>
-    <t>https://cdn.cloudflare.steamstatic.com/steam/apps/361280/header.jpg?t=1676993558</t>
-  </si>
-  <si>
     <t>Old World - Wonders and Dynasties</t>
   </si>
   <si>
@@ -598,6 +598,33 @@
     <t>https://cdn.cloudflare.steamstatic.com/steam/apps/2587430/header.jpg?t=1705172069</t>
   </si>
   <si>
+    <t>Call to Arms - Gates of Hell: Talvisota</t>
+  </si>
+  <si>
+    <t>£13.99</t>
+  </si>
+  <si>
+    <t>£6.99</t>
+  </si>
+  <si>
+    <t>https://store.steampowered.com/app/1911520/Call_to_Arms__Gates_of_Hell_Talvisota?snr=1_2300_4__salebrowseall</t>
+  </si>
+  <si>
+    <t>https://cdn.cloudflare.steamstatic.com/steam/apps/1911520/header.jpg?t=1694704640</t>
+  </si>
+  <si>
+    <t>XCOM® 2</t>
+  </si>
+  <si>
+    <t>£3.49</t>
+  </si>
+  <si>
+    <t>https://store.steampowered.com/app/268500/XCOM_2?snr=1_2300_4__salebrowseall</t>
+  </si>
+  <si>
+    <t>https://cdn.cloudflare.steamstatic.com/steam/apps/268500/header.jpg?t=1646157374</t>
+  </si>
+  <si>
     <t>Elite Dangerous</t>
   </si>
   <si>
@@ -607,33 +634,6 @@
     <t>https://cdn.cloudflare.steamstatic.com/steam/apps/359320/header.jpg?t=1698853676</t>
   </si>
   <si>
-    <t>Call to Arms - Gates of Hell: Talvisota</t>
-  </si>
-  <si>
-    <t>£13.99</t>
-  </si>
-  <si>
-    <t>£6.99</t>
-  </si>
-  <si>
-    <t>https://store.steampowered.com/app/1911520/Call_to_Arms__Gates_of_Hell_Talvisota?snr=1_2300_4__salebrowseall</t>
-  </si>
-  <si>
-    <t>https://cdn.cloudflare.steamstatic.com/steam/apps/1911520/header.jpg?t=1694704640</t>
-  </si>
-  <si>
-    <t>XCOM® 2</t>
-  </si>
-  <si>
-    <t>£3.49</t>
-  </si>
-  <si>
-    <t>https://store.steampowered.com/app/268500/XCOM_2?snr=1_2300_4__salebrowseall</t>
-  </si>
-  <si>
-    <t>https://cdn.cloudflare.steamstatic.com/steam/apps/268500/header.jpg?t=1646157374</t>
-  </si>
-  <si>
     <t>Aliens: Fireteam Elite</t>
   </si>
   <si>
@@ -649,25 +649,28 @@
     <t>https://cdn.cloudflare.steamstatic.com/steam/apps/1549970/header.jpg?t=1695812247</t>
   </si>
   <si>
-    <t>Legion TD 2 - Multiplayer Tower Defense</t>
-  </si>
-  <si>
-    <t>£11.39</t>
-  </si>
-  <si>
-    <t>https://store.steampowered.com/app/469600/Legion_TD_2__Multiplayer_Tower_Defense?snr=1_2300_4__salebrowseall</t>
-  </si>
-  <si>
-    <t>https://cdn.cloudflare.steamstatic.com/steam/apps/469600/header.jpg?t=1704301508</t>
-  </si>
-  <si>
-    <t>Watch Dogs®: Legion</t>
-  </si>
-  <si>
-    <t>https://store.steampowered.com/app/2239550/Watch_Dogs_Legion?snr=1_2300_4__salebrowseall</t>
-  </si>
-  <si>
-    <t>https://cdn.cloudflare.steamstatic.com/steam/apps/2239550/header.jpg?t=1692817793</t>
+    <t>Parkitect</t>
+  </si>
+  <si>
+    <t>£11.89</t>
+  </si>
+  <si>
+    <t>https://store.steampowered.com/app/453090/Parkitect?snr=1_2300_4__salebrowseall</t>
+  </si>
+  <si>
+    <t>https://cdn.cloudflare.steamstatic.com/steam/apps/453090/header.jpg?t=1703236760</t>
+  </si>
+  <si>
+    <t>The Great Ace Attorney Chronicles</t>
+  </si>
+  <si>
+    <t>£31.99</t>
+  </si>
+  <si>
+    <t>https://store.steampowered.com/app/1158850/The_Great_Ace_Attorney_Chronicles?snr=1_2300_4__salebrowseall</t>
+  </si>
+  <si>
+    <t>https://cdn.cloudflare.steamstatic.com/steam/apps/1158850/header.jpg?t=1701220479</t>
   </si>
 </sst>
 </file>
@@ -1072,13 +1075,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="6" width="35.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="7" width="20.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="6" width="95.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="6" width="69.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21.75">
@@ -1408,39 +1411,39 @@
         <v>70</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>8</v>
+        <v>71</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E15" s="5">
-        <v>98854</v>
+        <v>11145</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
       <c r="A16" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>74</v>
+        <v>8</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>75</v>
+        <v>29</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E16" s="5">
-        <v>7334</v>
+        <v>98854</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>76</v>
@@ -1460,10 +1463,10 @@
         <v>80</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="E17" s="5">
-        <v>11145</v>
+        <v>16479</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>81</v>
@@ -1486,7 +1489,7 @@
         <v>10</v>
       </c>
       <c r="E18" s="5">
-        <v>16479</v>
+        <v>7334</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>86</v>
@@ -1569,16 +1572,16 @@
         <v>101</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>61</v>
+        <v>102</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>102</v>
+        <v>48</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E22" s="5">
-        <v>50748</v>
+        <v>18549</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>103</v>
@@ -1592,16 +1595,16 @@
         <v>105</v>
       </c>
       <c r="B23" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>48</v>
-      </c>
       <c r="D23" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E23" s="5">
-        <v>18530</v>
+        <v>50748</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>107</v>
@@ -1647,7 +1650,7 @@
         <v>10</v>
       </c>
       <c r="E25" s="5">
-        <v>11141</v>
+        <v>11110</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>116</v>
@@ -1670,7 +1673,7 @@
         <v>10</v>
       </c>
       <c r="E26" s="5">
-        <v>6327</v>
+        <v>6326</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>120</v>
@@ -1716,7 +1719,7 @@
         <v>10</v>
       </c>
       <c r="E28" s="5">
-        <v>5370</v>
+        <v>5316</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>127</v>
@@ -1730,39 +1733,39 @@
         <v>129</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>28</v>
+        <v>130</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E29" s="5">
-        <v>81767</v>
+        <v>2153</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
       <c r="A30" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B30" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="C30" s="3" t="s">
-        <v>134</v>
-      </c>
       <c r="D30" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E30" s="5">
-        <v>2044</v>
+        <v>81677</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>135</v>
@@ -1799,27 +1802,27 @@
         <v>141</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>115</v>
+        <v>142</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="E32" s="5">
-        <v>1493</v>
+        <v>552</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
       <c r="A33" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>14</v>
@@ -1834,27 +1837,27 @@
         <v>4770</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
       <c r="A34" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>149</v>
+        <v>115</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>150</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E34" s="5">
-        <v>552</v>
+        <v>1486</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>151</v>
@@ -1874,10 +1877,10 @@
         <v>155</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="E35" s="5">
-        <v>1313</v>
+        <v>9727</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>156</v>
@@ -1897,10 +1900,10 @@
         <v>160</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E36" s="5">
-        <v>9727</v>
+        <v>1307</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>161</v>
@@ -1914,122 +1917,122 @@
         <v>163</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>110</v>
+        <v>164</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E37" s="5">
-        <v>6185</v>
+        <v>15225</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
       <c r="A38" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>168</v>
+        <v>8</v>
       </c>
       <c r="C38" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38" s="5">
+        <v>3673</v>
+      </c>
+      <c r="F38" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="D38" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E38" s="5">
-        <v>15225</v>
-      </c>
-      <c r="F38" s="3" t="s">
+      <c r="G38" s="3" t="s">
         <v>170</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>171</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
       <c r="A39" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B39" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="B39" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="C39" s="3" t="s">
-        <v>115</v>
+        <v>173</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="E39" s="5">
-        <v>3673</v>
+        <v>537</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
       <c r="A40" s="3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="E40" s="5">
-        <v>537</v>
+        <v>10261</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
       <c r="A41" s="3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E41" s="5">
-        <v>1654</v>
+        <v>6185</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
       <c r="A42" s="3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>185</v>
+        <v>84</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>186</v>
@@ -2038,7 +2041,7 @@
         <v>10</v>
       </c>
       <c r="E42" s="5">
-        <v>10261</v>
+        <v>1654</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>187</v>
@@ -2075,62 +2078,62 @@
         <v>194</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>14</v>
+        <v>195</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>130</v>
+        <v>196</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>35</v>
       </c>
       <c r="E44" s="5">
-        <v>69692</v>
+        <v>434</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
       <c r="A45" s="3" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>198</v>
+        <v>39</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="E45" s="5">
-        <v>434</v>
+        <v>65931</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
       <c r="A46" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>203</v>
+        <v>130</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E46" s="5">
-        <v>65897</v>
+        <v>69692</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>204</v>
@@ -2167,7 +2170,7 @@
         <v>211</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>159</v>
+        <v>66</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>212</v>
@@ -2176,7 +2179,7 @@
         <v>10</v>
       </c>
       <c r="E48" s="5">
-        <v>9455</v>
+        <v>5690</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>213</v>
@@ -2190,22 +2193,22 @@
         <v>215</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>8</v>
+        <v>216</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>29</v>
+        <v>84</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="E49" s="5">
-        <v>6253</v>
+        <v>3517</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>
